--- a/database/industries/nasaji/netrin/product/yearly_seprated.xlsx
+++ b/database/industries/nasaji/netrin/product/yearly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\nasaji\netrin\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\nasaji\netrin\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391FAC95-6FFA-4831-90E6-897E65596B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA1EEFB-6DBD-41DA-B938-C570BAB77350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -736,12 +736,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -751,7 +751,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -763,7 +763,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -775,7 +775,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -785,7 +785,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -797,7 +797,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -809,7 +809,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -819,7 +819,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -841,7 +841,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -851,7 +851,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -863,7 +863,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -887,7 +887,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -935,7 +935,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>16</v>
       </c>
@@ -959,7 +959,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
@@ -983,7 +983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>18</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>20</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>22</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>23</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
         <v>24</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>25</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
         <v>26</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>27</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
         <v>28</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>29</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
         <v>30</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>31</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
         <v>32</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>33</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
         <v>34</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>35</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
         <v>36</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
         <v>37</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
         <v>38</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>39</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
         <v>40</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>41</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
         <v>42</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>43</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
         <v>44</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
         <v>45</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="14" t="s">
         <v>46</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>2474</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
         <v>47</v>
       </c>
@@ -1689,7 +1689,7 @@
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
         <v>15</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="12" t="s">
         <v>17</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>24</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="12" t="s">
         <v>25</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="16" t="s">
         <v>48</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
         <v>49</v>
       </c>
@@ -1819,7 +1819,7 @@
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
         <v>14</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
         <v>50</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="16" t="s">
         <v>51</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
         <v>53</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="16" t="s">
         <v>54</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>2546</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1941,7 +1941,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1951,7 +1951,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1961,7 +1961,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="s">
         <v>55</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1993,7 +1993,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
         <v>56</v>
       </c>
@@ -2005,7 +2005,7 @@
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>11</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>160534</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
         <v>14</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
         <v>15</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>29134</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="12" t="s">
         <v>16</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
         <v>17</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
         <v>18</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>665965</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
         <v>19</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>269619</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="12" t="s">
         <v>20</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
         <v>21</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="12" t="s">
         <v>22</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
         <v>23</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="12" t="s">
         <v>24</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
         <v>25</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="12" t="s">
         <v>26</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
         <v>27</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
         <v>28</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
         <v>29</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="12" t="s">
         <v>30</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
         <v>31</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="12" t="s">
         <v>32</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
         <v>33</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>90918</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="12" t="s">
         <v>34</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
         <v>35</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="12" t="s">
         <v>36</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
         <v>37</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="12" t="s">
         <v>38</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
         <v>39</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" s="12" t="s">
         <v>40</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="10" t="s">
         <v>41</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="12" t="s">
         <v>42</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
         <v>43</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>269165</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="12" t="s">
         <v>44</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>136949</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
         <v>45</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" s="14" t="s">
         <v>46</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>1622284</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" s="8" t="s">
         <v>58</v>
       </c>
@@ -2831,7 +2831,7 @@
       <c r="H97" s="9"/>
       <c r="I97" s="9"/>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" s="10" t="s">
         <v>15</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" s="12" t="s">
         <v>17</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" s="10" t="s">
         <v>24</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" s="12" t="s">
         <v>25</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" s="16" t="s">
         <v>48</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
         <v>59</v>
       </c>
@@ -2961,7 +2961,7 @@
       <c r="H103" s="9"/>
       <c r="I103" s="9"/>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
         <v>14</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>9987</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" s="14" t="s">
         <v>50</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>9987</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" s="16" t="s">
         <v>51</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107" s="14" t="s">
         <v>53</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" s="16" t="s">
         <v>54</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>1632271</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -3087,7 +3087,7 @@
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -3097,7 +3097,7 @@
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -3107,7 +3107,7 @@
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
     </row>
-    <row r="112" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B112" s="7" t="s">
         <v>60</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -3139,7 +3139,7 @@
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B114" s="8" t="s">
         <v>61</v>
       </c>
@@ -3151,7 +3151,7 @@
       <c r="H114" s="9"/>
       <c r="I114" s="9"/>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B115" s="10" t="s">
         <v>11</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>691956897</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B116" s="12" t="s">
         <v>14</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B117" s="10" t="s">
         <v>15</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>560269231</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B118" s="12" t="s">
         <v>16</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B119" s="10" t="s">
         <v>17</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B120" s="12" t="s">
         <v>18</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>589871568</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B121" s="10" t="s">
         <v>19</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>679141058</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B122" s="12" t="s">
         <v>20</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B123" s="10" t="s">
         <v>21</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B124" s="12" t="s">
         <v>22</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B125" s="10" t="s">
         <v>23</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B126" s="12" t="s">
         <v>24</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B127" s="10" t="s">
         <v>25</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B128" s="12" t="s">
         <v>26</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B129" s="10" t="s">
         <v>27</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B130" s="12" t="s">
         <v>28</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B131" s="10" t="s">
         <v>29</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B132" s="12" t="s">
         <v>30</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B133" s="10" t="s">
         <v>31</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B134" s="12" t="s">
         <v>32</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B135" s="10" t="s">
         <v>33</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>426845070</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B136" s="12" t="s">
         <v>34</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B137" s="10" t="s">
         <v>35</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B138" s="12" t="s">
         <v>36</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B139" s="10" t="s">
         <v>37</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B140" s="12" t="s">
         <v>38</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B141" s="10" t="s">
         <v>39</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B142" s="12" t="s">
         <v>40</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B143" s="10" t="s">
         <v>41</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B144" s="12" t="s">
         <v>42</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B145" s="10" t="s">
         <v>43</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>909341216</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B146" s="12" t="s">
         <v>44</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>883541935</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B147" s="10" t="s">
         <v>45</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B148" s="8" t="s">
         <v>63</v>
       </c>
@@ -3955,7 +3955,7 @@
       <c r="H148" s="9"/>
       <c r="I148" s="9"/>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B149" s="10" t="s">
         <v>15</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B150" s="12" t="s">
         <v>17</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B151" s="10" t="s">
         <v>24</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B152" s="12" t="s">
         <v>25</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B153" s="8" t="s">
         <v>64</v>
       </c>
@@ -4063,7 +4063,7 @@
       <c r="H153" s="9"/>
       <c r="I153" s="9"/>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B154" s="10" t="s">
         <v>14</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>138708333</v>
       </c>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -4097,7 +4097,7 @@
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -4107,7 +4107,7 @@
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -4117,7 +4117,7 @@
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
     </row>
-    <row r="158" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B158" s="7" t="s">
         <v>66</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -4149,7 +4149,7 @@
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B160" s="8" t="s">
         <v>67</v>
       </c>
@@ -4161,7 +4161,7 @@
       <c r="H160" s="9"/>
       <c r="I160" s="9"/>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B161" s="10" t="s">
         <v>11</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>-110762</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B162" s="12" t="s">
         <v>14</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B163" s="10" t="s">
         <v>15</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>-23827</v>
       </c>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B164" s="12" t="s">
         <v>16</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B165" s="10" t="s">
         <v>17</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B166" s="12" t="s">
         <v>18</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>-502633</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B167" s="10" t="s">
         <v>19</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>-174371</v>
       </c>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B168" s="12" t="s">
         <v>20</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B169" s="10" t="s">
         <v>21</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B170" s="12" t="s">
         <v>22</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B171" s="10" t="s">
         <v>23</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B172" s="12" t="s">
         <v>24</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B173" s="10" t="s">
         <v>25</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B174" s="12" t="s">
         <v>26</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B175" s="10" t="s">
         <v>27</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B176" s="12" t="s">
         <v>28</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B177" s="10" t="s">
         <v>29</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B178" s="12" t="s">
         <v>30</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B179" s="10" t="s">
         <v>31</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B180" s="12" t="s">
         <v>32</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B181" s="10" t="s">
         <v>33</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>-88783</v>
       </c>
     </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B182" s="12" t="s">
         <v>34</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B183" s="10" t="s">
         <v>35</v>
       </c>
@@ -4713,7 +4713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B184" s="12" t="s">
         <v>36</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B185" s="10" t="s">
         <v>37</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B186" s="12" t="s">
         <v>38</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B187" s="10" t="s">
         <v>39</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B188" s="12" t="s">
         <v>40</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B189" s="10" t="s">
         <v>41</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B190" s="12" t="s">
         <v>42</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B191" s="10" t="s">
         <v>43</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>-157954</v>
       </c>
     </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B192" s="12" t="s">
         <v>44</v>
       </c>
@@ -4929,7 +4929,7 @@
         <v>-72467</v>
       </c>
     </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B193" s="10" t="s">
         <v>45</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B194" s="14" t="s">
         <v>68</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>-1130797</v>
       </c>
     </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B195" s="8" t="s">
         <v>69</v>
       </c>
@@ -4987,7 +4987,7 @@
       <c r="H195" s="9"/>
       <c r="I195" s="9"/>
     </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B196" s="10" t="s">
         <v>15</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B197" s="12" t="s">
         <v>17</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B198" s="10" t="s">
         <v>24</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B199" s="12" t="s">
         <v>25</v>
       </c>
@@ -5083,7 +5083,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B200" s="16" t="s">
         <v>70</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B201" s="8" t="s">
         <v>71</v>
       </c>
@@ -5117,7 +5117,7 @@
       <c r="H201" s="9"/>
       <c r="I201" s="9"/>
     </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B202" s="10" t="s">
         <v>14</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>-8751</v>
       </c>
     </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B203" s="14" t="s">
         <v>72</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>-8751</v>
       </c>
     </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B204" s="16" t="s">
         <v>51</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B205" s="14" t="s">
         <v>53</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B206" s="16" t="s">
         <v>54</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>-1139548</v>
       </c>
     </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
@@ -5243,7 +5243,7 @@
       <c r="H207" s="1"/>
       <c r="I207" s="1"/>
     </row>
-    <row r="208" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
@@ -5253,7 +5253,7 @@
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
     </row>
-    <row r="209" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
@@ -5263,7 +5263,7 @@
       <c r="H209" s="1"/>
       <c r="I209" s="1"/>
     </row>
-    <row r="210" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B210" s="7" t="s">
         <v>73</v>
       </c>
@@ -5285,7 +5285,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="211" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
@@ -5295,7 +5295,7 @@
       <c r="H211" s="1"/>
       <c r="I211" s="1"/>
     </row>
-    <row r="212" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B212" s="8" t="s">
         <v>74</v>
       </c>
@@ -5307,7 +5307,7 @@
       <c r="H212" s="9"/>
       <c r="I212" s="9"/>
     </row>
-    <row r="213" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B213" s="10" t="s">
         <v>11</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>49772</v>
       </c>
     </row>
-    <row r="214" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B214" s="12" t="s">
         <v>14</v>
       </c>
@@ -5355,7 +5355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B215" s="10" t="s">
         <v>15</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>5307</v>
       </c>
     </row>
-    <row r="216" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B216" s="12" t="s">
         <v>16</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="217" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B217" s="10" t="s">
         <v>17</v>
       </c>
@@ -5427,7 +5427,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B218" s="12" t="s">
         <v>18</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>163332</v>
       </c>
     </row>
-    <row r="219" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B219" s="10" t="s">
         <v>19</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>95248</v>
       </c>
     </row>
-    <row r="220" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B220" s="12" t="s">
         <v>20</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B221" s="10" t="s">
         <v>21</v>
       </c>
@@ -5523,7 +5523,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="222" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B222" s="12" t="s">
         <v>22</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B223" s="10" t="s">
         <v>23</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="224" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B224" s="12" t="s">
         <v>24</v>
       </c>
@@ -5595,7 +5595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B225" s="10" t="s">
         <v>25</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B226" s="12" t="s">
         <v>26</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B227" s="10" t="s">
         <v>27</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B228" s="12" t="s">
         <v>28</v>
       </c>
@@ -5691,7 +5691,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="229" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B229" s="10" t="s">
         <v>29</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="230" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B230" s="12" t="s">
         <v>30</v>
       </c>
@@ -5739,7 +5739,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="231" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B231" s="10" t="s">
         <v>31</v>
       </c>
@@ -5763,7 +5763,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="232" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B232" s="12" t="s">
         <v>32</v>
       </c>
@@ -5787,7 +5787,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="233" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B233" s="10" t="s">
         <v>33</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="234" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B234" s="12" t="s">
         <v>34</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="235" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B235" s="10" t="s">
         <v>35</v>
       </c>
@@ -5859,7 +5859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B236" s="12" t="s">
         <v>36</v>
       </c>
@@ -5883,7 +5883,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="237" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B237" s="10" t="s">
         <v>37</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B238" s="12" t="s">
         <v>38</v>
       </c>
@@ -5931,7 +5931,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="239" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B239" s="10" t="s">
         <v>39</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="240" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B240" s="12" t="s">
         <v>40</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B241" s="10" t="s">
         <v>41</v>
       </c>
@@ -6003,7 +6003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B242" s="12" t="s">
         <v>42</v>
       </c>
@@ -6027,7 +6027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B243" s="10" t="s">
         <v>43</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>111211</v>
       </c>
     </row>
-    <row r="244" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B244" s="12" t="s">
         <v>44</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>64482</v>
       </c>
     </row>
-    <row r="245" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B245" s="10" t="s">
         <v>45</v>
       </c>
@@ -6099,7 +6099,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="246" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B246" s="14" t="s">
         <v>75</v>
       </c>
@@ -6121,7 +6121,7 @@
         <v>491487</v>
       </c>
     </row>
-    <row r="247" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B247" s="8" t="s">
         <v>76</v>
       </c>
@@ -6133,7 +6133,7 @@
       <c r="H247" s="9"/>
       <c r="I247" s="9"/>
     </row>
-    <row r="248" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B248" s="10" t="s">
         <v>15</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="249" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B249" s="12" t="s">
         <v>17</v>
       </c>
@@ -6181,7 +6181,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B250" s="10" t="s">
         <v>24</v>
       </c>
@@ -6205,7 +6205,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="251" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B251" s="12" t="s">
         <v>25</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="252" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B252" s="16" t="s">
         <v>77</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B253" s="8" t="s">
         <v>78</v>
       </c>
@@ -6263,7 +6263,7 @@
       <c r="H253" s="9"/>
       <c r="I253" s="9"/>
     </row>
-    <row r="254" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B254" s="10" t="s">
         <v>14</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="255" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B255" s="14" t="s">
         <v>79</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="256" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B256" s="16" t="s">
         <v>54</v>
       </c>
